--- a/biology/Médecine/Claire_Booth/Claire_Booth.xlsx
+++ b/biology/Médecine/Claire_Booth/Claire_Booth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Claire Windsor, de son mariage, comtesse d'Ulster, née Claire Alexandra Booth le 29 décembre 1977 à Sheffield, médecin de profession. Elle est l'épouse d'Alexander Windsor, comte d'Ulster, membre de la famille royale britannique.
 </t>
@@ -513,12 +525,87 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Famille
-Descendante des Booth, vieille famille de la petite noblesse du Cheshire, elle est l'aînée des deux filles de Robert Booth, expert-comptable, et sa femme, Barbara Patricia Hitchen.
-Carrière de médecin
-Claire Booth obtient ses diplômes de médecine MB et BS, ainsi qu'une maîtrise universitaire MSc en 2007 et un PhD en 2012 à l'université de Londres[1]. Elle exerce en tant que médecin-pédiatre.
-Mariage et descendance
-Le 22 juin 2002, elle épouse le major Alexander Windsor, comte d'Ulster, seul fils et héritier du prince Richard, 2e duc de Gloucester[2], avec lequel elle a deux enfants[3] :
+          <t>Famille</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Descendante des Booth, vieille famille de la petite noblesse du Cheshire, elle est l'aînée des deux filles de Robert Booth, expert-comptable, et sa femme, Barbara Patricia Hitchen.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Claire_Booth</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claire_Booth</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière de médecin</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Claire Booth obtient ses diplômes de médecine MB et BS, ainsi qu'une maîtrise universitaire MSc en 2007 et un PhD en 2012 à l'université de Londres. Elle exerce en tant que médecin-pédiatre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Claire_Booth</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claire_Booth</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Mariage et descendance</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le 22 juin 2002, elle épouse le major Alexander Windsor, comte d'Ulster, seul fils et héritier du prince Richard, 2e duc de Gloucester, avec lequel elle a deux enfants :
 Xan Windsor, baron Culloden, né le 12 mars 2007.
 Cosima Windsor, née le 20 mai 2010.</t>
         </is>
